--- a/Trade_Result.xlsx
+++ b/Trade_Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\newco\Documents\Repos\Python\Upwork\Steven\EarningsReversalPattern\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B3D410-A231-49E0-AE4A-206E1E0D7175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F270BEEE-C95D-4B17-B826-DC93A5F1BDC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17445" yWindow="1725" windowWidth="33390" windowHeight="19785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9570" yWindow="-20520" windowWidth="33390" windowHeight="19785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reported_Stocks" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="520">
   <si>
     <t>DXCM</t>
   </si>
@@ -155,70 +155,100 @@
     <t>NUE</t>
   </si>
   <si>
-    <t>['03-31-2017']</t>
-  </si>
-  <si>
-    <t>['06-30-2017', '09-30-2021']</t>
-  </si>
-  <si>
-    <t>['06-30-2017']</t>
-  </si>
-  <si>
-    <t>['09-30-2017']</t>
-  </si>
-  <si>
-    <t>['09-30-2017', '09-30-2021']</t>
-  </si>
-  <si>
-    <t>['12-31-2017']</t>
-  </si>
-  <si>
-    <t>['03-31-2018']</t>
-  </si>
-  <si>
-    <t>['06-30-2018', '09-30-2018', '03-31-2019']</t>
-  </si>
-  <si>
-    <t>['06-30-2018']</t>
-  </si>
-  <si>
-    <t>['04-30-2019']</t>
-  </si>
-  <si>
-    <t>['03-31-2019']</t>
-  </si>
-  <si>
-    <t>['06-30-2019']</t>
-  </si>
-  <si>
-    <t>['07-31-2019']</t>
-  </si>
-  <si>
-    <t>['09-30-2019']</t>
-  </si>
-  <si>
-    <t>['11-30-2019']</t>
-  </si>
-  <si>
-    <t>['06-30-2020']</t>
-  </si>
-  <si>
-    <t>['09-30-2020']</t>
-  </si>
-  <si>
-    <t>['12-31-2020']</t>
-  </si>
-  <si>
-    <t>['09-30-2021']</t>
-  </si>
-  <si>
-    <t>['06-30-2021']</t>
-  </si>
-  <si>
-    <t>['12-31-2021']</t>
-  </si>
-  <si>
-    <t>['12-31-2021', '12-31-2021']</t>
+    <t>['04-06-2017']</t>
+  </si>
+  <si>
+    <t>['04-04-2017']</t>
+  </si>
+  <si>
+    <t>['04-03-2017']</t>
+  </si>
+  <si>
+    <t>['07-03-2017', '10-04-2021']</t>
+  </si>
+  <si>
+    <t>['07-03-2017']</t>
+  </si>
+  <si>
+    <t>['10-02-2017']</t>
+  </si>
+  <si>
+    <t>['10-02-2017', '10-04-2021']</t>
+  </si>
+  <si>
+    <t>['01-02-2018']</t>
+  </si>
+  <si>
+    <t>['01-05-2018']</t>
+  </si>
+  <si>
+    <t>['04-02-2018']</t>
+  </si>
+  <si>
+    <t>['07-06-2018', '10-04-2018', '04-01-2019']</t>
+  </si>
+  <si>
+    <t>['07-02-2018']</t>
+  </si>
+  <si>
+    <t>['05-07-2019']</t>
+  </si>
+  <si>
+    <t>['04-01-2019']</t>
+  </si>
+  <si>
+    <t>['07-01-2019']</t>
+  </si>
+  <si>
+    <t>['08-05-2019']</t>
+  </si>
+  <si>
+    <t>['10-01-2019']</t>
+  </si>
+  <si>
+    <t>['12-03-2019']</t>
+  </si>
+  <si>
+    <t>['10-03-2019']</t>
+  </si>
+  <si>
+    <t>['10-07-2019']</t>
+  </si>
+  <si>
+    <t>['07-02-2020']</t>
+  </si>
+  <si>
+    <t>['07-06-2020']</t>
+  </si>
+  <si>
+    <t>['10-01-2020']</t>
+  </si>
+  <si>
+    <t>['01-07-2021']</t>
+  </si>
+  <si>
+    <t>['01-06-2021']</t>
+  </si>
+  <si>
+    <t>['10-04-2021']</t>
+  </si>
+  <si>
+    <t>['07-07-2021']</t>
+  </si>
+  <si>
+    <t>['07-06-2021']</t>
+  </si>
+  <si>
+    <t>['07-02-2021']</t>
+  </si>
+  <si>
+    <t>['01-04-2022']</t>
+  </si>
+  <si>
+    <t>['01-05-2022']</t>
+  </si>
+  <si>
+    <t>['01-05-2022', '01-07-2022']</t>
   </si>
   <si>
     <t>EOG</t>
@@ -1609,13 +1639,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1958,25 +1984,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>508</v>
+      <c r="A1" t="s">
+        <v>518</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -1984,352 +2010,351 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2337,77 +2362,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B258"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="68.5703125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B7" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2415,103 +2437,103 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B10" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B11" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B13" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="B14" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B15" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B16" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B17" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B18" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B19" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B20" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B21" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2519,23 +2541,23 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="B23" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B24" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2543,55 +2565,55 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B26" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B27" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B28" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B29" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B30" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B31" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -2599,15 +2621,15 @@
         <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B33" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2615,15 +2637,15 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B35" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -2631,31 +2653,31 @@
         <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B37" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B38" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B39" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -2663,7 +2685,7 @@
         <v>22</v>
       </c>
       <c r="B40" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -2671,15 +2693,15 @@
         <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B42" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -2687,55 +2709,55 @@
         <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B44" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B45" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B46" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B47" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B48" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B49" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -2743,55 +2765,55 @@
         <v>34</v>
       </c>
       <c r="B50" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B51" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B52" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B53" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B54" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B55" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="B56" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -2799,31 +2821,31 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B58" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B59" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B60" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -2831,87 +2853,87 @@
         <v>20</v>
       </c>
       <c r="B61" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B62" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B63" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B64" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B65" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="B66" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="B67" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B68" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B69" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B70" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B71" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -2919,23 +2941,23 @@
         <v>27</v>
       </c>
       <c r="B72" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="B73" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="B74" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -2943,7 +2965,7 @@
         <v>8</v>
       </c>
       <c r="B75" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -2951,7 +2973,7 @@
         <v>9</v>
       </c>
       <c r="B76" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -2959,87 +2981,87 @@
         <v>19</v>
       </c>
       <c r="B77" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="B78" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B79" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B80" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="B81" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B82" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="B83" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="B84" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B85" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="B86" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B87" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -3047,23 +3069,23 @@
         <v>10</v>
       </c>
       <c r="B88" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B89" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="B90" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -3071,55 +3093,55 @@
         <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="B92" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B93" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="B94" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="B95" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B96" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="B97" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -3127,47 +3149,47 @@
         <v>25</v>
       </c>
       <c r="B98" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B99" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B100" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B101" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B102" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="B103" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -3175,55 +3197,55 @@
         <v>12</v>
       </c>
       <c r="B104" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="B105" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B106" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="B107" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="B108" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="B109" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="B110" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -3231,39 +3253,39 @@
         <v>14</v>
       </c>
       <c r="B111" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B112" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="B113" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="B114" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B115" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -3271,95 +3293,95 @@
         <v>39</v>
       </c>
       <c r="B116" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="B117" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="B118" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="B119" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B120" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="B121" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="B122" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="B123" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B124" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="B125" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B126" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="B127" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -3367,7 +3389,7 @@
         <v>15</v>
       </c>
       <c r="B128" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -3375,47 +3397,47 @@
         <v>16</v>
       </c>
       <c r="B129" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B130" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="B131" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B132" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B133" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="B134" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -3423,71 +3445,71 @@
         <v>17</v>
       </c>
       <c r="B135" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="B136" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="B137" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="B138" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B139" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="B140" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="B141" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="B142" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="B143" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -3495,23 +3517,23 @@
         <v>18</v>
       </c>
       <c r="B144" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="B145" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="B146" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -3519,103 +3541,103 @@
         <v>23</v>
       </c>
       <c r="B147" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="B148" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B149" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="B150" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="B151" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="B152" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="B153" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="B154" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="B155" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="B156" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="B157" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="B158" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="B159" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -3623,87 +3645,87 @@
         <v>28</v>
       </c>
       <c r="B160" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="B161" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="B162" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="B163" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="B164" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="B165" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="B166" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="B167" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="B168" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="B169" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="B170" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -3711,47 +3733,47 @@
         <v>21</v>
       </c>
       <c r="B171" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="B172" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="B173" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="B174" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="B175" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="B176" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -3759,143 +3781,143 @@
         <v>24</v>
       </c>
       <c r="B177" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="B178" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="B179" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="B180" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="B181" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="B182" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="B183" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="B184" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="B185" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="B186" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="B187" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="B188" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="B189" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="B190" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="B191" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="B192" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="B193" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="B194" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -3903,31 +3925,31 @@
         <v>26</v>
       </c>
       <c r="B195" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="B196" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="B197" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="B198" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -3935,87 +3957,87 @@
         <v>30</v>
       </c>
       <c r="B199" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="B200" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="B201" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="B202" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="B203" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="B204" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="B205" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="B206" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="B207" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="B208" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="B209" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -4023,39 +4045,39 @@
         <v>29</v>
       </c>
       <c r="B210" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="B211" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="B212" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="B213" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="B214" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -4063,15 +4085,15 @@
         <v>38</v>
       </c>
       <c r="B215" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="B216" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -4079,7 +4101,7 @@
         <v>31</v>
       </c>
       <c r="B217" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -4087,7 +4109,7 @@
         <v>32</v>
       </c>
       <c r="B218" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -4095,79 +4117,79 @@
         <v>33</v>
       </c>
       <c r="B219" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="B220" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="B221" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="B222" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="B223" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="B224" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="B225" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="B226" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="B227" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="B228" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
@@ -4175,31 +4197,31 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="B230" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="B231" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="B232" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
@@ -4207,15 +4229,15 @@
         <v>36</v>
       </c>
       <c r="B233" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="B234" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -4223,143 +4245,143 @@
         <v>37</v>
       </c>
       <c r="B235" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="B236" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="B237" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="B238" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="B239" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="B240" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="B241" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="B242" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="B243" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="B244" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="B245" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="B246" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="B247" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="B248" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="B249" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="B250" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="B251" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="B252" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
@@ -4367,7 +4389,7 @@
         <v>40</v>
       </c>
       <c r="B253" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
@@ -4375,7 +4397,7 @@
         <v>41</v>
       </c>
       <c r="B254" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
@@ -4383,23 +4405,23 @@
         <v>42</v>
       </c>
       <c r="B255" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="B256" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="B257" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
@@ -4407,7 +4429,7 @@
         <v>43</v>
       </c>
       <c r="B258" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
     </row>
   </sheetData>

--- a/Trade_Result.xlsx
+++ b/Trade_Result.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="556">
   <si>
     <t>Symbols</t>
   </si>
@@ -155,6 +155,276 @@
     <t>SPGI</t>
   </si>
   <si>
+    <t>BXP</t>
+  </si>
+  <si>
+    <t>PSA</t>
+  </si>
+  <si>
+    <t>SPG</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>JKHY</t>
+  </si>
+  <si>
+    <t>RSG</t>
+  </si>
+  <si>
+    <t>TDY</t>
+  </si>
+  <si>
+    <t>ACN</t>
+  </si>
+  <si>
+    <t>NKE</t>
+  </si>
+  <si>
+    <t>SNA</t>
+  </si>
+  <si>
+    <t>HSY</t>
+  </si>
+  <si>
+    <t>CDW</t>
+  </si>
+  <si>
+    <t>FISV</t>
+  </si>
+  <si>
+    <t>FRT</t>
+  </si>
+  <si>
+    <t>FTNT</t>
+  </si>
+  <si>
+    <t>RCL</t>
+  </si>
+  <si>
+    <t>TSLA</t>
+  </si>
+  <si>
+    <t>TTWO</t>
+  </si>
+  <si>
+    <t>VRSK</t>
+  </si>
+  <si>
+    <t>BWA</t>
+  </si>
+  <si>
+    <t>XRAY</t>
+  </si>
+  <si>
+    <t>IEX</t>
+  </si>
+  <si>
+    <t>FANG</t>
+  </si>
+  <si>
+    <t>FLT</t>
+  </si>
+  <si>
+    <t>FMC</t>
+  </si>
+  <si>
+    <t>AMAT</t>
+  </si>
+  <si>
+    <t>CSCO</t>
+  </si>
+  <si>
+    <t>CPRT</t>
+  </si>
+  <si>
+    <t>SJM</t>
+  </si>
+  <si>
+    <t>PEP</t>
+  </si>
+  <si>
+    <t>POOL</t>
+  </si>
+  <si>
+    <t>APD</t>
+  </si>
+  <si>
+    <t>CB</t>
+  </si>
+  <si>
+    <t>CDNS</t>
+  </si>
+  <si>
+    <t>CERN</t>
+  </si>
+  <si>
+    <t>KMB</t>
+  </si>
+  <si>
+    <t>LMT</t>
+  </si>
+  <si>
+    <t>MAS</t>
+  </si>
+  <si>
+    <t>TROW</t>
+  </si>
+  <si>
+    <t>WST</t>
+  </si>
+  <si>
+    <t>PAYC</t>
+  </si>
+  <si>
+    <t>VRTX</t>
+  </si>
+  <si>
+    <t>ETR</t>
+  </si>
+  <si>
+    <t>MAA</t>
+  </si>
+  <si>
+    <t>OKE</t>
+  </si>
+  <si>
+    <t>SEE</t>
+  </si>
+  <si>
+    <t>AIZ</t>
+  </si>
+  <si>
+    <t>ANSS</t>
+  </si>
+  <si>
+    <t>BDX</t>
+  </si>
+  <si>
+    <t>CVS</t>
+  </si>
+  <si>
+    <t>FIS</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>STE</t>
+  </si>
+  <si>
+    <t>WMT</t>
+  </si>
+  <si>
+    <t>DPZ</t>
+  </si>
+  <si>
+    <t>FAST</t>
+  </si>
+  <si>
+    <t>CCI</t>
+  </si>
+  <si>
+    <t>SRE</t>
+  </si>
+  <si>
+    <t>FRC</t>
+  </si>
+  <si>
+    <t>UNH</t>
+  </si>
+  <si>
+    <t>CHTR</t>
+  </si>
+  <si>
+    <t>ATVI</t>
+  </si>
+  <si>
+    <t>CNC</t>
+  </si>
+  <si>
+    <t>NXPI</t>
+  </si>
+  <si>
+    <t>LEN</t>
+  </si>
+  <si>
+    <t>GRMN</t>
+  </si>
+  <si>
+    <t>CBRE</t>
+  </si>
+  <si>
+    <t>PYPL</t>
+  </si>
+  <si>
+    <t>HOLX</t>
+  </si>
+  <si>
+    <t>COO</t>
+  </si>
+  <si>
+    <t>DRI</t>
+  </si>
+  <si>
+    <t>CMA</t>
+  </si>
+  <si>
+    <t>UNP</t>
+  </si>
+  <si>
+    <t>TMUS</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>EMR</t>
+  </si>
+  <si>
+    <t>TWTR</t>
+  </si>
+  <si>
+    <t>IPG</t>
+  </si>
+  <si>
+    <t>MMC</t>
+  </si>
+  <si>
+    <t>RHI</t>
+  </si>
+  <si>
+    <t>EBAY</t>
+  </si>
+  <si>
+    <t>EL</t>
+  </si>
+  <si>
+    <t>LOW</t>
+  </si>
+  <si>
+    <t>PAYX</t>
+  </si>
+  <si>
+    <t>WBA</t>
+  </si>
+  <si>
+    <t>EFX</t>
+  </si>
+  <si>
+    <t>ZION</t>
+  </si>
+  <si>
+    <t>MTCH</t>
+  </si>
+  <si>
+    <t>EXPE</t>
+  </si>
+  <si>
+    <t>SNPS</t>
+  </si>
+  <si>
     <t>['01-30-2017']</t>
   </si>
   <si>
@@ -164,15 +434,27 @@
     <t>['02-13-2017']</t>
   </si>
   <si>
+    <t>['02-13-2017', '11-04-2019']</t>
+  </si>
+  <si>
     <t>['03-06-2017']</t>
   </si>
   <si>
+    <t>['04-24-2017', '07-26-2021']</t>
+  </si>
+  <si>
+    <t>['04-24-2017', '07-29-2019']</t>
+  </si>
+  <si>
     <t>['04-24-2017']</t>
   </si>
   <si>
     <t>['05-08-2017']</t>
   </si>
   <si>
+    <t>['05-08-2017', '02-12-2018']</t>
+  </si>
+  <si>
     <t>['05-30-2017']</t>
   </si>
   <si>
@@ -188,24 +470,186 @@
     <t>['10-02-2017']</t>
   </si>
   <si>
+    <t>['10-23-2017', '07-22-2019']</t>
+  </si>
+  <si>
     <t>['10-23-2017']</t>
   </si>
   <si>
     <t>['10-30-2017']</t>
   </si>
   <si>
+    <t>['10-30-2017', '08-05-2019']</t>
+  </si>
+  <si>
+    <t>['11-06-2017', '08-12-2019']</t>
+  </si>
+  <si>
+    <t>['11-06-2017', '05-07-2018']</t>
+  </si>
+  <si>
     <t>['11-06-2017']</t>
   </si>
   <si>
     <t>['01-16-2018']</t>
   </si>
   <si>
-    <t>['01-29-2018']</t>
+    <t>['01-29-2018', '07-29-2019']</t>
   </si>
   <si>
     <t>['02-12-2018']</t>
   </si>
   <si>
+    <t>['04-30-2018']</t>
+  </si>
+  <si>
+    <t>['04-30-2018', '08-06-2018']</t>
+  </si>
+  <si>
+    <t>['05-07-2018']</t>
+  </si>
+  <si>
+    <t>['05-07-2018', '08-23-2021']</t>
+  </si>
+  <si>
+    <t>['05-07-2018', '07-30-2018']</t>
+  </si>
+  <si>
+    <t>['07-02-2018', '09-27-2021']</t>
+  </si>
+  <si>
+    <t>['07-02-2018']</t>
+  </si>
+  <si>
+    <t>['07-23-2018']</t>
+  </si>
+  <si>
+    <t>['07-30-2018']</t>
+  </si>
+  <si>
+    <t>['08-06-2018']</t>
+  </si>
+  <si>
+    <t>['08-06-2018', '08-12-2019']</t>
+  </si>
+  <si>
+    <t>['02-19-2019']</t>
+  </si>
+  <si>
+    <t>['03-04-2019']</t>
+  </si>
+  <si>
+    <t>['04-29-2019']</t>
+  </si>
+  <si>
+    <t>['05-13-2019']</t>
+  </si>
+  <si>
+    <t>['05-13-2019', '08-12-2019']</t>
+  </si>
+  <si>
+    <t>['05-20-2019']</t>
+  </si>
+  <si>
+    <t>['05-28-2019']</t>
+  </si>
+  <si>
+    <t>['06-10-2019']</t>
+  </si>
+  <si>
+    <t>['07-15-2019', '10-07-2019']</t>
+  </si>
+  <si>
+    <t>['07-22-2019', '10-21-2019', '07-26-2021']</t>
+  </si>
+  <si>
+    <t>['07-29-2019']</t>
+  </si>
+  <si>
+    <t>['07-29-2019', '03-01-2021']</t>
+  </si>
+  <si>
+    <t>['08-05-2019']</t>
+  </si>
+  <si>
+    <t>['08-12-2019']</t>
+  </si>
+  <si>
+    <t>['08-12-2019', '11-11-2019']</t>
+  </si>
+  <si>
+    <t>['08-19-2019']</t>
+  </si>
+  <si>
+    <t>['10-14-2019']</t>
+  </si>
+  <si>
+    <t>['10-21-2019']</t>
+  </si>
+  <si>
+    <t>['11-04-2019']</t>
+  </si>
+  <si>
+    <t>['01-21-2020']</t>
+  </si>
+  <si>
+    <t>['02-03-2020']</t>
+  </si>
+  <si>
+    <t>['02-10-2020']</t>
+  </si>
+  <si>
+    <t>['06-22-2020']</t>
+  </si>
+  <si>
+    <t>['08-03-2020']</t>
+  </si>
+  <si>
+    <t>['11-02-2020']</t>
+  </si>
+  <si>
+    <t>['11-09-2020']</t>
+  </si>
+  <si>
+    <t>['02-01-2021']</t>
+  </si>
+  <si>
+    <t>['03-08-2021']</t>
+  </si>
+  <si>
+    <t>['03-29-2021', '09-27-2021']</t>
+  </si>
+  <si>
+    <t>['04-26-2021']</t>
+  </si>
+  <si>
+    <t>['05-10-2021']</t>
+  </si>
+  <si>
+    <t>['07-26-2021']</t>
+  </si>
+  <si>
+    <t>['08-16-2021']</t>
+  </si>
+  <si>
+    <t>['08-23-2021']</t>
+  </si>
+  <si>
+    <t>['10-04-2021']</t>
+  </si>
+  <si>
+    <t>['10-18-2021']</t>
+  </si>
+  <si>
+    <t>['10-25-2021']</t>
+  </si>
+  <si>
+    <t>['11-08-2021']</t>
+  </si>
+  <si>
+    <t>['12-06-2021']</t>
+  </si>
+  <si>
     <t>['01-26-2017']</t>
   </si>
   <si>
@@ -227,16 +671,16 @@
     <t>['02-07-2017']</t>
   </si>
   <si>
-    <t>['02-08-2017']</t>
+    <t>['02-08-2017', '10-30-2019']</t>
   </si>
   <si>
     <t>['02-28-2017']</t>
   </si>
   <si>
-    <t>['04-19-2017']</t>
-  </si>
-  <si>
-    <t>['04-20-2017']</t>
+    <t>['04-19-2017', '07-23-2021']</t>
+  </si>
+  <si>
+    <t>['04-20-2017', '07-23-2019']</t>
   </si>
   <si>
     <t>['04-21-2017']</t>
@@ -245,7 +689,7 @@
     <t>['05-04-2017']</t>
   </si>
   <si>
-    <t>['05-02-2017']</t>
+    <t>['05-02-2017', '02-06-2018']</t>
   </si>
   <si>
     <t>['05-25-2017']</t>
@@ -275,19 +719,28 @@
     <t>['09-28-2017']</t>
   </si>
   <si>
+    <t>['10-19-2017', '07-18-2019']</t>
+  </si>
+  <si>
     <t>['10-19-2017']</t>
   </si>
   <si>
     <t>['10-26-2017']</t>
   </si>
   <si>
+    <t>['10-26-2017', '07-31-2019']</t>
+  </si>
+  <si>
     <t>['10-24-2017']</t>
   </si>
   <si>
     <t>['10-25-2017']</t>
   </si>
   <si>
-    <t>['11-02-2017']</t>
+    <t>['11-02-2017', '08-06-2019']</t>
+  </si>
+  <si>
+    <t>['11-02-2017', '05-03-2018']</t>
   </si>
   <si>
     <t>['11-01-2017']</t>
@@ -296,7 +749,7 @@
     <t>['01-11-2018']</t>
   </si>
   <si>
-    <t>['01-24-2018']</t>
+    <t>['01-24-2018', '07-22-2019']</t>
   </si>
   <si>
     <t>['02-07-2018']</t>
@@ -308,6 +761,210 @@
     <t>['02-06-2018']</t>
   </si>
   <si>
+    <t>['04-24-2018']</t>
+  </si>
+  <si>
+    <t>['04-25-2018']</t>
+  </si>
+  <si>
+    <t>['04-27-2018', '07-30-2018']</t>
+  </si>
+  <si>
+    <t>['05-02-2018']</t>
+  </si>
+  <si>
+    <t>['05-01-2018', '08-17-2021']</t>
+  </si>
+  <si>
+    <t>['05-02-2018', '07-26-2018']</t>
+  </si>
+  <si>
+    <t>['05-03-2018']</t>
+  </si>
+  <si>
+    <t>['06-28-2018', '09-23-2021']</t>
+  </si>
+  <si>
+    <t>['06-28-2018']</t>
+  </si>
+  <si>
+    <t>['07-19-2018']</t>
+  </si>
+  <si>
+    <t>['07-26-2018']</t>
+  </si>
+  <si>
+    <t>['08-02-2018']</t>
+  </si>
+  <si>
+    <t>['07-31-2018']</t>
+  </si>
+  <si>
+    <t>['08-01-2018']</t>
+  </si>
+  <si>
+    <t>['08-02-2018', '08-05-2019']</t>
+  </si>
+  <si>
+    <t>['02-14-2019']</t>
+  </si>
+  <si>
+    <t>['03-01-2019']</t>
+  </si>
+  <si>
+    <t>['04-25-2019']</t>
+  </si>
+  <si>
+    <t>['05-07-2019']</t>
+  </si>
+  <si>
+    <t>['05-07-2019', '08-06-2019']</t>
+  </si>
+  <si>
+    <t>['05-06-2019']</t>
+  </si>
+  <si>
+    <t>['05-16-2019']</t>
+  </si>
+  <si>
+    <t>['05-15-2019']</t>
+  </si>
+  <si>
+    <t>['05-22-2019']</t>
+  </si>
+  <si>
+    <t>['06-06-2019']</t>
+  </si>
+  <si>
+    <t>['07-09-2019', '10-03-2019']</t>
+  </si>
+  <si>
+    <t>['07-18-2019', '10-17-2019', '07-22-2021']</t>
+  </si>
+  <si>
+    <t>['07-25-2019']</t>
+  </si>
+  <si>
+    <t>['07-23-2019']</t>
+  </si>
+  <si>
+    <t>['07-22-2019', '02-22-2021']</t>
+  </si>
+  <si>
+    <t>['07-24-2019']</t>
+  </si>
+  <si>
+    <t>['07-30-2019']</t>
+  </si>
+  <si>
+    <t>['07-31-2019']</t>
+  </si>
+  <si>
+    <t>['08-02-2019']</t>
+  </si>
+  <si>
+    <t>['08-06-2019']</t>
+  </si>
+  <si>
+    <t>['08-05-2019', '11-06-2019']</t>
+  </si>
+  <si>
+    <t>['08-07-2019']</t>
+  </si>
+  <si>
+    <t>['08-15-2019']</t>
+  </si>
+  <si>
+    <t>['10-08-2019']</t>
+  </si>
+  <si>
+    <t>['10-11-2019']</t>
+  </si>
+  <si>
+    <t>['10-16-2019']</t>
+  </si>
+  <si>
+    <t>['11-01-2019']</t>
+  </si>
+  <si>
+    <t>['01-14-2020']</t>
+  </si>
+  <si>
+    <t>['01-15-2020']</t>
+  </si>
+  <si>
+    <t>['01-31-2020']</t>
+  </si>
+  <si>
+    <t>['02-06-2020']</t>
+  </si>
+  <si>
+    <t>['02-04-2020']</t>
+  </si>
+  <si>
+    <t>['06-15-2020']</t>
+  </si>
+  <si>
+    <t>['07-29-2020']</t>
+  </si>
+  <si>
+    <t>['10-29-2020']</t>
+  </si>
+  <si>
+    <t>['01-27-2021']</t>
+  </si>
+  <si>
+    <t>['03-04-2021']</t>
+  </si>
+  <si>
+    <t>['03-25-2021', '09-23-2021']</t>
+  </si>
+  <si>
+    <t>['04-20-2021']</t>
+  </si>
+  <si>
+    <t>['04-22-2021']</t>
+  </si>
+  <si>
+    <t>['05-04-2021']</t>
+  </si>
+  <si>
+    <t>['05-05-2021']</t>
+  </si>
+  <si>
+    <t>['07-22-2021']</t>
+  </si>
+  <si>
+    <t>['07-21-2021']</t>
+  </si>
+  <si>
+    <t>['08-11-2021']</t>
+  </si>
+  <si>
+    <t>['08-19-2021']</t>
+  </si>
+  <si>
+    <t>['08-18-2021']</t>
+  </si>
+  <si>
+    <t>['09-30-2021']</t>
+  </si>
+  <si>
+    <t>['10-14-2021']</t>
+  </si>
+  <si>
+    <t>['10-20-2021']</t>
+  </si>
+  <si>
+    <t>['11-02-2021']</t>
+  </si>
+  <si>
+    <t>['11-04-2021']</t>
+  </si>
+  <si>
+    <t>['12-01-2021']</t>
+  </si>
+  <si>
     <t>EOG</t>
   </si>
   <si>
@@ -332,42 +989,21 @@
     <t>GS</t>
   </si>
   <si>
-    <t>FANG</t>
-  </si>
-  <si>
     <t>ADSK</t>
   </si>
   <si>
-    <t>BXP</t>
-  </si>
-  <si>
-    <t>FLT</t>
-  </si>
-  <si>
     <t>HCA</t>
   </si>
   <si>
-    <t>EXPE</t>
-  </si>
-  <si>
     <t>REGN</t>
   </si>
   <si>
-    <t>JKHY</t>
-  </si>
-  <si>
     <t>PVH</t>
   </si>
   <si>
     <t>ROK</t>
   </si>
   <si>
-    <t>UNH</t>
-  </si>
-  <si>
-    <t>ATVI</t>
-  </si>
-  <si>
     <t>DLR</t>
   </si>
   <si>
@@ -386,15 +1022,6 @@
     <t>PTC</t>
   </si>
   <si>
-    <t>EL</t>
-  </si>
-  <si>
-    <t>ETR</t>
-  </si>
-  <si>
-    <t>TSLA</t>
-  </si>
-  <si>
     <t>COST</t>
   </si>
   <si>
@@ -404,27 +1031,15 @@
     <t>JBHT</t>
   </si>
   <si>
-    <t>UNP</t>
-  </si>
-  <si>
-    <t>CMA</t>
-  </si>
-  <si>
     <t>DD</t>
   </si>
   <si>
     <t>HES</t>
   </si>
   <si>
-    <t>WST</t>
-  </si>
-  <si>
     <t>MU</t>
   </si>
   <si>
-    <t>TDY</t>
-  </si>
-  <si>
     <t>MMM</t>
   </si>
   <si>
@@ -437,19 +1052,292 @@
     <t>WYNN</t>
   </si>
   <si>
-    <t>TWTR</t>
-  </si>
-  <si>
-    <t>POOL</t>
-  </si>
-  <si>
     <t>OMC</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>ADBE</t>
+  </si>
+  <si>
+    <t>NTAP</t>
+  </si>
+  <si>
+    <t>PSX</t>
+  </si>
+  <si>
+    <t>GL</t>
+  </si>
+  <si>
+    <t>ISRG</t>
+  </si>
+  <si>
+    <t>ROST</t>
+  </si>
+  <si>
+    <t>ATO</t>
+  </si>
+  <si>
+    <t>TDG</t>
+  </si>
+  <si>
+    <t>VTR</t>
+  </si>
+  <si>
+    <t>CRL</t>
+  </si>
+  <si>
+    <t>NVDA</t>
+  </si>
+  <si>
+    <t>DISCA</t>
+  </si>
+  <si>
+    <t>IFF</t>
+  </si>
+  <si>
+    <t>BIIB</t>
+  </si>
+  <si>
+    <t>BIO</t>
+  </si>
+  <si>
+    <t>MSI</t>
+  </si>
+  <si>
+    <t>DIS</t>
+  </si>
+  <si>
+    <t>PGR</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>MSFT</t>
+  </si>
+  <si>
+    <t>PPG</t>
+  </si>
+  <si>
+    <t>SHW</t>
+  </si>
+  <si>
+    <t>SYY</t>
+  </si>
+  <si>
+    <t>AMT</t>
+  </si>
+  <si>
+    <t>GPN</t>
+  </si>
+  <si>
+    <t>LDOS</t>
+  </si>
+  <si>
+    <t>AMD</t>
+  </si>
+  <si>
+    <t>CINF</t>
+  </si>
+  <si>
+    <t>ECL</t>
+  </si>
+  <si>
+    <t>IDXX</t>
+  </si>
+  <si>
+    <t>PLD</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>WM</t>
+  </si>
+  <si>
+    <t>TMO</t>
+  </si>
+  <si>
+    <t>EXPD</t>
+  </si>
+  <si>
+    <t>PH</t>
+  </si>
+  <si>
+    <t>PNC</t>
+  </si>
+  <si>
+    <t>SWK</t>
+  </si>
+  <si>
+    <t>QRVO</t>
+  </si>
+  <si>
+    <t>MPWR</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>AAPL</t>
+  </si>
+  <si>
+    <t>BAX</t>
+  </si>
+  <si>
+    <t>CLX</t>
+  </si>
+  <si>
+    <t>LLY</t>
+  </si>
+  <si>
+    <t>OXY</t>
+  </si>
+  <si>
+    <t>KEYS</t>
+  </si>
+  <si>
+    <t>APTV</t>
+  </si>
+  <si>
+    <t>GNRC</t>
+  </si>
+  <si>
+    <t>LKQ</t>
+  </si>
+  <si>
+    <t>PNR</t>
+  </si>
+  <si>
+    <t>SLB</t>
+  </si>
+  <si>
+    <t>STZ</t>
+  </si>
+  <si>
+    <t>MPC</t>
+  </si>
+  <si>
+    <t>AMGN</t>
+  </si>
+  <si>
+    <t>PKI</t>
+  </si>
+  <si>
+    <t>SEDG</t>
+  </si>
+  <si>
+    <t>EXR</t>
+  </si>
+  <si>
+    <t>EQR</t>
+  </si>
+  <si>
+    <t>ESS</t>
+  </si>
+  <si>
+    <t>ALLE</t>
+  </si>
+  <si>
+    <t>MLM</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>CAH</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>PCAR</t>
+  </si>
+  <si>
+    <t>CFG</t>
+  </si>
+  <si>
+    <t>AON</t>
+  </si>
+  <si>
+    <t>CVX</t>
+  </si>
+  <si>
+    <t>TFC</t>
+  </si>
+  <si>
+    <t>XOM</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>ROP</t>
+  </si>
+  <si>
+    <t>BMY</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>MCK</t>
+  </si>
+  <si>
+    <t>LNC</t>
+  </si>
+  <si>
+    <t>RJF</t>
+  </si>
+  <si>
+    <t>USB</t>
+  </si>
+  <si>
+    <t>AME</t>
+  </si>
+  <si>
+    <t>APH</t>
+  </si>
+  <si>
+    <t>FBHS</t>
+  </si>
+  <si>
+    <t>ITW</t>
+  </si>
+  <si>
+    <t>KLAC</t>
+  </si>
+  <si>
+    <t>LIN</t>
+  </si>
+  <si>
+    <t>REG</t>
+  </si>
+  <si>
+    <t>TSN</t>
+  </si>
+  <si>
+    <t>VFC</t>
+  </si>
+  <si>
+    <t>ADI</t>
+  </si>
+  <si>
+    <t>NUE</t>
+  </si>
+  <si>
     <t>['12-5-2016']</t>
   </si>
   <si>
-    <t>['12-19-2016', '3-20-2017']</t>
+    <t>['12-19-2016', '3-20-2017', '12-9-2019', '6-1-2021']</t>
   </si>
   <si>
     <t>['1-17-2017']</t>
@@ -458,7 +1346,7 @@
     <t>['1-17-2017', '10-16-2017']</t>
   </si>
   <si>
-    <t>['1-23-2017']</t>
+    <t>['1-23-2017', '12-6-2021']</t>
   </si>
   <si>
     <t>['1-30-2017']</t>
@@ -470,7 +1358,7 @@
     <t>['2-13-2017']</t>
   </si>
   <si>
-    <t>['3-13-2017']</t>
+    <t>['3-13-2017', '4-9-2018']</t>
   </si>
   <si>
     <t>['3-20-2017']</t>
@@ -479,7 +1367,7 @@
     <t>['3-27-2017']</t>
   </si>
   <si>
-    <t>['4-3-2017']</t>
+    <t>['4-3-2017', '3-29-2021']</t>
   </si>
   <si>
     <t>['4-10-2017']</t>
@@ -488,27 +1376,57 @@
     <t>['5-1-2017']</t>
   </si>
   <si>
+    <t>['5-22-2017', '6-22-2020']</t>
+  </si>
+  <si>
+    <t>['5-22-2017', '2-8-2021']</t>
+  </si>
+  <si>
+    <t>['5-22-2017', '12-11-2017', '6-22-2020']</t>
+  </si>
+  <si>
     <t>['5-22-2017']</t>
   </si>
   <si>
-    <t>['5-22-2017', '12-11-2017']</t>
+    <t>['6-19-2017', '10-7-2019']</t>
+  </si>
+  <si>
+    <t>['6-19-2017', '10-2-2017']</t>
+  </si>
+  <si>
+    <t>['6-19-2017', '5-7-2018', '6-1-2020']</t>
+  </si>
+  <si>
+    <t>['6-19-2017', '6-22-2020']</t>
   </si>
   <si>
     <t>['6-19-2017']</t>
   </si>
   <si>
-    <t>['6-19-2017', '10-2-2017']</t>
+    <t>['6-19-2017', '3-18-2019']</t>
   </si>
   <si>
     <t>['10-2-2017']</t>
   </si>
   <si>
-    <t>['10-9-2017']</t>
+    <t>['10-9-2017', '6-10-2019']</t>
+  </si>
+  <si>
+    <t>['10-9-2017', '9-30-2019']</t>
+  </si>
+  <si>
+    <t>['10-16-2017', '8-12-2019']</t>
   </si>
   <si>
     <t>['10-16-2017']</t>
   </si>
   <si>
+    <t>['10-23-2017', '6-22-2020', '12-6-2021']</t>
+  </si>
+  <si>
+    <t>['11-20-2017', '9-27-2021']</t>
+  </si>
+  <si>
     <t>['11-20-2017']</t>
   </si>
   <si>
@@ -518,7 +1436,7 @@
     <t>['12-11-2017']</t>
   </si>
   <si>
-    <t>['12-18-2017']</t>
+    <t>['12-18-2017', '12-9-2019']</t>
   </si>
   <si>
     <t>['12-26-2017']</t>
@@ -527,6 +1445,12 @@
     <t>['1-8-2018']</t>
   </si>
   <si>
+    <t>['1-8-2018', '6-22-2020']</t>
+  </si>
+  <si>
+    <t>['1-16-2018', '4-9-2018']</t>
+  </si>
+  <si>
     <t>['1-16-2018']</t>
   </si>
   <si>
@@ -534,6 +1458,231 @@
   </si>
   <si>
     <t>['2-12-2018']</t>
+  </si>
+  <si>
+    <t>['3-12-2018']</t>
+  </si>
+  <si>
+    <t>['4-9-2018', '7-2-2018']</t>
+  </si>
+  <si>
+    <t>['4-9-2018', '4-1-2019']</t>
+  </si>
+  <si>
+    <t>['4-9-2018']</t>
+  </si>
+  <si>
+    <t>['4-9-2018', '8-12-2019', '10-7-2019']</t>
+  </si>
+  <si>
+    <t>['4-30-2018', '6-14-2021']</t>
+  </si>
+  <si>
+    <t>['6-4-2018', '4-1-2019']</t>
+  </si>
+  <si>
+    <t>['6-4-2018']</t>
+  </si>
+  <si>
+    <t>['6-4-2018', '1-13-2020', '9-20-2021']</t>
+  </si>
+  <si>
+    <t>['6-4-2018', '5-24-2021']</t>
+  </si>
+  <si>
+    <t>['6-11-2018']</t>
+  </si>
+  <si>
+    <t>['6-18-2018']</t>
+  </si>
+  <si>
+    <t>['6-18-2018', '8-12-2019', '9-27-2021']</t>
+  </si>
+  <si>
+    <t>['7-2-2018', '6-10-2019']</t>
+  </si>
+  <si>
+    <t>['7-2-2018']</t>
+  </si>
+  <si>
+    <t>['8-6-2018']</t>
+  </si>
+  <si>
+    <t>['8-20-2018']</t>
+  </si>
+  <si>
+    <t>['8-27-2018', '7-26-2021']</t>
+  </si>
+  <si>
+    <t>['9-17-2018']</t>
+  </si>
+  <si>
+    <t>['9-24-2018', '6-7-2021']</t>
+  </si>
+  <si>
+    <t>['3-18-2019', '6-22-2020']</t>
+  </si>
+  <si>
+    <t>['4-1-2019']</t>
+  </si>
+  <si>
+    <t>['5-13-2019']</t>
+  </si>
+  <si>
+    <t>['5-20-2019']</t>
+  </si>
+  <si>
+    <t>['5-20-2019', '6-8-2020']</t>
+  </si>
+  <si>
+    <t>['6-10-2019', '9-20-2021']</t>
+  </si>
+  <si>
+    <t>['6-10-2019']</t>
+  </si>
+  <si>
+    <t>['6-10-2019', '8-12-2019']</t>
+  </si>
+  <si>
+    <t>['6-10-2019', '8-12-2019', '9-20-2021']</t>
+  </si>
+  <si>
+    <t>['7-8-2019']</t>
+  </si>
+  <si>
+    <t>['7-29-2019', '12-16-2019']</t>
+  </si>
+  <si>
+    <t>['8-12-2019']</t>
+  </si>
+  <si>
+    <t>['8-12-2019', '12-6-2021']</t>
+  </si>
+  <si>
+    <t>['9-23-2019', '6-28-2021']</t>
+  </si>
+  <si>
+    <t>['10-7-2019']</t>
+  </si>
+  <si>
+    <t>['10-14-2019', '12-6-2021']</t>
+  </si>
+  <si>
+    <t>['11-18-2019']</t>
+  </si>
+  <si>
+    <t>['12-9-2019', '5-10-2021']</t>
+  </si>
+  <si>
+    <t>['12-9-2019']</t>
+  </si>
+  <si>
+    <t>['12-9-2019', '12-21-2020']</t>
+  </si>
+  <si>
+    <t>['12-23-2019', '6-1-2020']</t>
+  </si>
+  <si>
+    <t>['1-13-2020']</t>
+  </si>
+  <si>
+    <t>['2-10-2020']</t>
+  </si>
+  <si>
+    <t>['2-10-2020', '1-11-2021']</t>
+  </si>
+  <si>
+    <t>['6-1-2020']</t>
+  </si>
+  <si>
+    <t>['6-8-2020']</t>
+  </si>
+  <si>
+    <t>['6-22-2020']</t>
+  </si>
+  <si>
+    <t>['6-22-2020', '9-21-2020']</t>
+  </si>
+  <si>
+    <t>['6-22-2020', '12-14-2020']</t>
+  </si>
+  <si>
+    <t>['6-22-2020', '1-11-2021']</t>
+  </si>
+  <si>
+    <t>['7-13-2020']</t>
+  </si>
+  <si>
+    <t>['8-31-2020']</t>
+  </si>
+  <si>
+    <t>['8-31-2020', '9-20-2021']</t>
+  </si>
+  <si>
+    <t>['9-28-2020']</t>
+  </si>
+  <si>
+    <t>['11-16-2020']</t>
+  </si>
+  <si>
+    <t>['12-7-2020', '12-6-2021']</t>
+  </si>
+  <si>
+    <t>['12-7-2020']</t>
+  </si>
+  <si>
+    <t>['12-21-2020']</t>
+  </si>
+  <si>
+    <t>['12-21-2020', '3-29-2021']</t>
+  </si>
+  <si>
+    <t>['1-11-2021']</t>
+  </si>
+  <si>
+    <t>['3-8-2021']</t>
+  </si>
+  <si>
+    <t>['3-15-2021']</t>
+  </si>
+  <si>
+    <t>['3-29-2021']</t>
+  </si>
+  <si>
+    <t>['3-29-2021', '9-27-2021']</t>
+  </si>
+  <si>
+    <t>['4-26-2021']</t>
+  </si>
+  <si>
+    <t>['5-24-2021']</t>
+  </si>
+  <si>
+    <t>['6-14-2021']</t>
+  </si>
+  <si>
+    <t>['6-21-2021']</t>
+  </si>
+  <si>
+    <t>['7-12-2021', '12-6-2021']</t>
+  </si>
+  <si>
+    <t>['7-26-2021']</t>
+  </si>
+  <si>
+    <t>['9-20-2021']</t>
+  </si>
+  <si>
+    <t>['9-27-2021']</t>
+  </si>
+  <si>
+    <t>['12-6-2021']</t>
+  </si>
+  <si>
+    <t>['12-13-2021']</t>
+  </si>
+  <si>
+    <t>['12-20-2021']</t>
   </si>
 </sst>
 </file>
@@ -891,7 +2040,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -916,10 +2065,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -930,10 +2079,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -944,10 +2093,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -958,10 +2107,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -972,10 +2121,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -986,10 +2135,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1000,10 +2149,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1014,10 +2163,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1028,10 +2177,10 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>139</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1042,10 +2191,10 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>140</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1056,10 +2205,10 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>141</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1070,10 +2219,10 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>142</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1084,10 +2233,10 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>143</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1098,10 +2247,10 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>144</v>
       </c>
       <c r="D15" t="s">
-        <v>75</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1112,10 +2261,10 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>145</v>
       </c>
       <c r="D16" t="s">
-        <v>76</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1126,10 +2275,10 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>146</v>
       </c>
       <c r="D17" t="s">
-        <v>77</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1140,10 +2289,10 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>146</v>
       </c>
       <c r="D18" t="s">
-        <v>77</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1154,10 +2303,10 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>147</v>
       </c>
       <c r="D19" t="s">
-        <v>78</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1168,10 +2317,10 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>147</v>
       </c>
       <c r="D20" t="s">
-        <v>79</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1182,10 +2331,10 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>147</v>
       </c>
       <c r="D21" t="s">
-        <v>80</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1196,10 +2345,10 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>147</v>
       </c>
       <c r="D22" t="s">
-        <v>80</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1210,10 +2359,10 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>148</v>
       </c>
       <c r="D23" t="s">
-        <v>81</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1224,10 +2373,10 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>148</v>
       </c>
       <c r="D24" t="s">
-        <v>82</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1238,10 +2387,10 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>148</v>
       </c>
       <c r="D25" t="s">
-        <v>83</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1252,10 +2401,10 @@
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>149</v>
       </c>
       <c r="D26" t="s">
-        <v>84</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1266,10 +2415,10 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>149</v>
       </c>
       <c r="D27" t="s">
-        <v>84</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1280,10 +2429,10 @@
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>149</v>
       </c>
       <c r="D28" t="s">
-        <v>84</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1294,10 +2443,10 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>150</v>
       </c>
       <c r="D29" t="s">
-        <v>85</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1308,10 +2457,10 @@
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>151</v>
       </c>
       <c r="D30" t="s">
-        <v>86</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1322,10 +2471,10 @@
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>57</v>
+        <v>152</v>
       </c>
       <c r="D31" t="s">
-        <v>86</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1336,10 +2485,10 @@
         <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>58</v>
+        <v>153</v>
       </c>
       <c r="D32" t="s">
-        <v>87</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1350,10 +2499,10 @@
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>58</v>
+        <v>154</v>
       </c>
       <c r="D33" t="s">
-        <v>87</v>
+        <v>237</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1364,10 +2513,10 @@
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>58</v>
+        <v>153</v>
       </c>
       <c r="D34" t="s">
-        <v>88</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1378,10 +2527,10 @@
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>58</v>
+        <v>153</v>
       </c>
       <c r="D35" t="s">
-        <v>89</v>
+        <v>239</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1392,10 +2541,10 @@
         <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>58</v>
+        <v>153</v>
       </c>
       <c r="D36" t="s">
-        <v>89</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1406,10 +2555,10 @@
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="D37" t="s">
-        <v>90</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1420,10 +2569,10 @@
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>59</v>
+        <v>156</v>
       </c>
       <c r="D38" t="s">
-        <v>90</v>
+        <v>241</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1434,10 +2583,10 @@
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>59</v>
+        <v>157</v>
       </c>
       <c r="D39" t="s">
-        <v>91</v>
+        <v>242</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1448,10 +2597,10 @@
         <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>60</v>
+        <v>158</v>
       </c>
       <c r="D40" t="s">
-        <v>92</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1462,10 +2611,10 @@
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>61</v>
+        <v>159</v>
       </c>
       <c r="D41" t="s">
-        <v>93</v>
+        <v>244</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1476,10 +2625,10 @@
         <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>62</v>
+        <v>160</v>
       </c>
       <c r="D42" t="s">
-        <v>94</v>
+        <v>245</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1490,10 +2639,10 @@
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>62</v>
+        <v>160</v>
       </c>
       <c r="D43" t="s">
-        <v>95</v>
+        <v>246</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1504,10 +2653,1270 @@
         <v>45</v>
       </c>
       <c r="C44" t="s">
+        <v>160</v>
+      </c>
+      <c r="D44" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" t="s">
+        <v>161</v>
+      </c>
+      <c r="D45" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" t="s">
+        <v>161</v>
+      </c>
+      <c r="D46" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" t="s">
+        <v>162</v>
+      </c>
+      <c r="D47" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" t="s">
+        <v>163</v>
+      </c>
+      <c r="D48" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" t="s">
+        <v>164</v>
+      </c>
+      <c r="D49" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" t="s">
+        <v>165</v>
+      </c>
+      <c r="D50" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" t="s">
+        <v>163</v>
+      </c>
+      <c r="D51" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" t="s">
+        <v>166</v>
+      </c>
+      <c r="D52" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" t="s">
+        <v>167</v>
+      </c>
+      <c r="D53" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" t="s">
+        <v>168</v>
+      </c>
+      <c r="D54" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" t="s">
+        <v>169</v>
+      </c>
+      <c r="D55" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" t="s">
+        <v>170</v>
+      </c>
+      <c r="D56" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" t="s">
+        <v>170</v>
+      </c>
+      <c r="D57" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" t="s">
+        <v>170</v>
+      </c>
+      <c r="D58" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" t="s">
+        <v>170</v>
+      </c>
+      <c r="D59" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" t="s">
+        <v>170</v>
+      </c>
+      <c r="D60" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
         <v>62</v>
       </c>
-      <c r="D44" t="s">
+      <c r="C61" t="s">
+        <v>170</v>
+      </c>
+      <c r="D61" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" t="s">
+        <v>171</v>
+      </c>
+      <c r="D62" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" t="s">
+        <v>170</v>
+      </c>
+      <c r="D63" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" t="s">
+        <v>172</v>
+      </c>
+      <c r="D64" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65" t="s">
+        <v>173</v>
+      </c>
+      <c r="D65" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66" t="s">
+        <v>174</v>
+      </c>
+      <c r="D66" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67" t="s">
+        <v>175</v>
+      </c>
+      <c r="D67" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>69</v>
+      </c>
+      <c r="C68" t="s">
+        <v>176</v>
+      </c>
+      <c r="D68" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>70</v>
+      </c>
+      <c r="C69" t="s">
+        <v>175</v>
+      </c>
+      <c r="D69" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70" t="s">
+        <v>177</v>
+      </c>
+      <c r="D70" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>72</v>
+      </c>
+      <c r="C71" t="s">
+        <v>177</v>
+      </c>
+      <c r="D71" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" t="s">
+        <v>178</v>
+      </c>
+      <c r="D72" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>74</v>
+      </c>
+      <c r="C73" t="s">
+        <v>179</v>
+      </c>
+      <c r="D73" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>75</v>
+      </c>
+      <c r="C74" t="s">
+        <v>180</v>
+      </c>
+      <c r="D74" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>76</v>
+      </c>
+      <c r="C75" t="s">
+        <v>181</v>
+      </c>
+      <c r="D75" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>77</v>
+      </c>
+      <c r="C76" t="s">
+        <v>182</v>
+      </c>
+      <c r="D76" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77" t="s">
+        <v>182</v>
+      </c>
+      <c r="D77" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>79</v>
+      </c>
+      <c r="C78" t="s">
+        <v>183</v>
+      </c>
+      <c r="D78" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>80</v>
+      </c>
+      <c r="C79" t="s">
+        <v>182</v>
+      </c>
+      <c r="D79" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>81</v>
+      </c>
+      <c r="C80" t="s">
+        <v>182</v>
+      </c>
+      <c r="D80" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>82</v>
+      </c>
+      <c r="C81" t="s">
+        <v>182</v>
+      </c>
+      <c r="D81" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82" t="s">
+        <v>182</v>
+      </c>
+      <c r="D82" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>84</v>
+      </c>
+      <c r="C83" t="s">
+        <v>182</v>
+      </c>
+      <c r="D83" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>85</v>
+      </c>
+      <c r="C84" t="s">
+        <v>182</v>
+      </c>
+      <c r="D84" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>86</v>
+      </c>
+      <c r="C85" t="s">
+        <v>184</v>
+      </c>
+      <c r="D85" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>87</v>
+      </c>
+      <c r="C86" t="s">
+        <v>184</v>
+      </c>
+      <c r="D86" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>88</v>
+      </c>
+      <c r="C87" t="s">
+        <v>184</v>
+      </c>
+      <c r="D87" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>89</v>
+      </c>
+      <c r="C88" t="s">
+        <v>184</v>
+      </c>
+      <c r="D88" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>90</v>
+      </c>
+      <c r="C89" t="s">
+        <v>184</v>
+      </c>
+      <c r="D89" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>91</v>
+      </c>
+      <c r="C90" t="s">
+        <v>184</v>
+      </c>
+      <c r="D90" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>92</v>
+      </c>
+      <c r="C91" t="s">
+        <v>185</v>
+      </c>
+      <c r="D91" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>93</v>
+      </c>
+      <c r="C92" t="s">
+        <v>186</v>
+      </c>
+      <c r="D92" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>94</v>
+      </c>
+      <c r="C93" t="s">
+        <v>185</v>
+      </c>
+      <c r="D93" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>95</v>
+      </c>
+      <c r="C94" t="s">
+        <v>185</v>
+      </c>
+      <c r="D94" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
         <v>96</v>
+      </c>
+      <c r="C95" t="s">
+        <v>185</v>
+      </c>
+      <c r="D95" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>97</v>
+      </c>
+      <c r="C96" t="s">
+        <v>185</v>
+      </c>
+      <c r="D96" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>98</v>
+      </c>
+      <c r="C97" t="s">
+        <v>185</v>
+      </c>
+      <c r="D97" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>99</v>
+      </c>
+      <c r="C98" t="s">
+        <v>187</v>
+      </c>
+      <c r="D98" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>100</v>
+      </c>
+      <c r="C99" t="s">
+        <v>188</v>
+      </c>
+      <c r="D99" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>101</v>
+      </c>
+      <c r="C100" t="s">
+        <v>188</v>
+      </c>
+      <c r="D100" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>102</v>
+      </c>
+      <c r="C101" t="s">
+        <v>189</v>
+      </c>
+      <c r="D101" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>103</v>
+      </c>
+      <c r="C102" t="s">
+        <v>190</v>
+      </c>
+      <c r="D102" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>104</v>
+      </c>
+      <c r="C103" t="s">
+        <v>191</v>
+      </c>
+      <c r="D103" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>105</v>
+      </c>
+      <c r="C104" t="s">
+        <v>191</v>
+      </c>
+      <c r="D104" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>106</v>
+      </c>
+      <c r="C105" t="s">
+        <v>192</v>
+      </c>
+      <c r="D105" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>107</v>
+      </c>
+      <c r="C106" t="s">
+        <v>193</v>
+      </c>
+      <c r="D106" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>108</v>
+      </c>
+      <c r="C107" t="s">
+        <v>193</v>
+      </c>
+      <c r="D107" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>109</v>
+      </c>
+      <c r="C108" t="s">
+        <v>193</v>
+      </c>
+      <c r="D108" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>110</v>
+      </c>
+      <c r="C109" t="s">
+        <v>194</v>
+      </c>
+      <c r="D109" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>111</v>
+      </c>
+      <c r="C110" t="s">
+        <v>195</v>
+      </c>
+      <c r="D110" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>112</v>
+      </c>
+      <c r="C111" t="s">
+        <v>196</v>
+      </c>
+      <c r="D111" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>113</v>
+      </c>
+      <c r="C112" t="s">
+        <v>197</v>
+      </c>
+      <c r="D112" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>114</v>
+      </c>
+      <c r="C113" t="s">
+        <v>198</v>
+      </c>
+      <c r="D113" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>115</v>
+      </c>
+      <c r="C114" t="s">
+        <v>199</v>
+      </c>
+      <c r="D114" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>116</v>
+      </c>
+      <c r="C115" t="s">
+        <v>200</v>
+      </c>
+      <c r="D115" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>117</v>
+      </c>
+      <c r="C116" t="s">
+        <v>201</v>
+      </c>
+      <c r="D116" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>118</v>
+      </c>
+      <c r="C117" t="s">
+        <v>201</v>
+      </c>
+      <c r="D117" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>119</v>
+      </c>
+      <c r="C118" t="s">
+        <v>202</v>
+      </c>
+      <c r="D118" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>120</v>
+      </c>
+      <c r="C119" t="s">
+        <v>202</v>
+      </c>
+      <c r="D119" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>121</v>
+      </c>
+      <c r="C120" t="s">
+        <v>202</v>
+      </c>
+      <c r="D120" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>122</v>
+      </c>
+      <c r="C121" t="s">
+        <v>203</v>
+      </c>
+      <c r="D121" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>123</v>
+      </c>
+      <c r="C122" t="s">
+        <v>203</v>
+      </c>
+      <c r="D122" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>124</v>
+      </c>
+      <c r="C123" t="s">
+        <v>203</v>
+      </c>
+      <c r="D123" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>125</v>
+      </c>
+      <c r="C124" t="s">
+        <v>203</v>
+      </c>
+      <c r="D124" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>126</v>
+      </c>
+      <c r="C125" t="s">
+        <v>204</v>
+      </c>
+      <c r="D125" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>127</v>
+      </c>
+      <c r="C126" t="s">
+        <v>205</v>
+      </c>
+      <c r="D126" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>128</v>
+      </c>
+      <c r="C127" t="s">
+        <v>205</v>
+      </c>
+      <c r="D127" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>129</v>
+      </c>
+      <c r="C128" t="s">
+        <v>206</v>
+      </c>
+      <c r="D128" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>130</v>
+      </c>
+      <c r="C129" t="s">
+        <v>207</v>
+      </c>
+      <c r="D129" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>131</v>
+      </c>
+      <c r="C130" t="s">
+        <v>208</v>
+      </c>
+      <c r="D130" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>132</v>
+      </c>
+      <c r="C131" t="s">
+        <v>208</v>
+      </c>
+      <c r="D131" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>133</v>
+      </c>
+      <c r="C132" t="s">
+        <v>209</v>
+      </c>
+      <c r="D132" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>134</v>
+      </c>
+      <c r="C133" t="s">
+        <v>209</v>
+      </c>
+      <c r="D133" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>135</v>
+      </c>
+      <c r="C134" t="s">
+        <v>210</v>
+      </c>
+      <c r="D134" t="s">
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -1517,7 +3926,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C188"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1536,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>316</v>
       </c>
       <c r="C2" t="s">
-        <v>143</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1547,10 +3956,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>317</v>
       </c>
       <c r="C3" t="s">
-        <v>144</v>
+        <v>440</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1558,10 +3967,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>318</v>
       </c>
       <c r="C4" t="s">
-        <v>145</v>
+        <v>441</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1569,10 +3978,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>319</v>
       </c>
       <c r="C5" t="s">
-        <v>146</v>
+        <v>442</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1583,7 +3992,7 @@
         <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>147</v>
+        <v>443</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1591,10 +4000,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>320</v>
       </c>
       <c r="C7" t="s">
-        <v>148</v>
+        <v>444</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1602,10 +4011,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>321</v>
       </c>
       <c r="C8" t="s">
-        <v>148</v>
+        <v>444</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1613,10 +4022,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>322</v>
       </c>
       <c r="C9" t="s">
-        <v>149</v>
+        <v>445</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1624,10 +4033,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>323</v>
       </c>
       <c r="C10" t="s">
-        <v>149</v>
+        <v>445</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1635,10 +4044,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>150</v>
+        <v>446</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1646,10 +4055,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>324</v>
       </c>
       <c r="C12" t="s">
-        <v>151</v>
+        <v>447</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1657,10 +4066,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>152</v>
+        <v>448</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1668,10 +4077,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>152</v>
+        <v>448</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1679,10 +4088,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>109</v>
+        <v>325</v>
       </c>
       <c r="C15" t="s">
-        <v>153</v>
+        <v>449</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1693,7 +4102,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>154</v>
+        <v>450</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1701,10 +4110,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="C17" t="s">
-        <v>155</v>
+        <v>451</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1712,10 +4121,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>111</v>
+        <v>326</v>
       </c>
       <c r="C18" t="s">
-        <v>156</v>
+        <v>452</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1723,10 +4132,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>157</v>
+        <v>453</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1734,10 +4143,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>113</v>
+        <v>327</v>
       </c>
       <c r="C20" t="s">
-        <v>157</v>
+        <v>454</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1745,10 +4154,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>114</v>
+        <v>328</v>
       </c>
       <c r="C21" t="s">
-        <v>158</v>
+        <v>455</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1756,10 +4165,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C22" t="s">
-        <v>157</v>
+        <v>456</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1767,10 +4176,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C23" t="s">
-        <v>159</v>
+        <v>457</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1778,10 +4187,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>117</v>
+        <v>329</v>
       </c>
       <c r="C24" t="s">
-        <v>160</v>
+        <v>458</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1789,10 +4198,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>118</v>
+        <v>330</v>
       </c>
       <c r="C25" t="s">
-        <v>159</v>
+        <v>459</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1800,10 +4209,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>119</v>
+        <v>331</v>
       </c>
       <c r="C26" t="s">
-        <v>160</v>
+        <v>458</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1811,10 +4220,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>120</v>
+        <v>332</v>
       </c>
       <c r="C27" t="s">
-        <v>159</v>
+        <v>460</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1825,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>159</v>
+        <v>461</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1833,10 +4242,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>121</v>
+        <v>333</v>
       </c>
       <c r="C29" t="s">
-        <v>159</v>
+        <v>462</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1844,10 +4253,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>122</v>
+        <v>334</v>
       </c>
       <c r="C30" t="s">
-        <v>159</v>
+        <v>461</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1855,10 +4264,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C31" t="s">
-        <v>161</v>
+        <v>463</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1866,10 +4275,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="C32" t="s">
-        <v>162</v>
+        <v>464</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1877,10 +4286,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>162</v>
+        <v>465</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1888,10 +4297,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>126</v>
+        <v>335</v>
       </c>
       <c r="C34" t="s">
-        <v>163</v>
+        <v>466</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1899,10 +4308,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>127</v>
+        <v>336</v>
       </c>
       <c r="C35" t="s">
-        <v>163</v>
+        <v>467</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1910,10 +4319,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>128</v>
+        <v>337</v>
       </c>
       <c r="C36" t="s">
-        <v>57</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1921,10 +4330,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C37" t="s">
-        <v>57</v>
+        <v>468</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1932,10 +4341,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="C38" t="s">
-        <v>164</v>
+        <v>469</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1943,10 +4352,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>131</v>
+        <v>338</v>
       </c>
       <c r="C39" t="s">
-        <v>164</v>
+        <v>470</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1954,10 +4363,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>132</v>
+        <v>339</v>
       </c>
       <c r="C40" t="s">
-        <v>165</v>
+        <v>471</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1965,10 +4374,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="C41" t="s">
-        <v>165</v>
+        <v>471</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1976,10 +4385,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>134</v>
+        <v>340</v>
       </c>
       <c r="C42" t="s">
-        <v>166</v>
+        <v>472</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1987,10 +4396,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>135</v>
+        <v>52</v>
       </c>
       <c r="C43" t="s">
-        <v>167</v>
+        <v>473</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2001,7 +4410,7 @@
         <v>21</v>
       </c>
       <c r="C44" t="s">
-        <v>168</v>
+        <v>474</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2009,10 +4418,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>136</v>
+        <v>341</v>
       </c>
       <c r="C45" t="s">
-        <v>169</v>
+        <v>475</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2020,10 +4429,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>137</v>
+        <v>342</v>
       </c>
       <c r="C46" t="s">
-        <v>169</v>
+        <v>476</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2031,10 +4440,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>138</v>
+        <v>343</v>
       </c>
       <c r="C47" t="s">
-        <v>170</v>
+        <v>477</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2045,7 +4454,7 @@
         <v>6</v>
       </c>
       <c r="C48" t="s">
-        <v>170</v>
+        <v>478</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2053,10 +4462,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>139</v>
+        <v>344</v>
       </c>
       <c r="C49" t="s">
-        <v>170</v>
+        <v>478</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2064,10 +4473,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="C50" t="s">
-        <v>171</v>
+        <v>479</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2075,10 +4484,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>141</v>
+        <v>76</v>
       </c>
       <c r="C51" t="s">
-        <v>171</v>
+        <v>479</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2086,10 +4495,1506 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
+        <v>345</v>
+      </c>
+      <c r="C52" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>346</v>
+      </c>
+      <c r="C53" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>347</v>
+      </c>
+      <c r="C54" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>348</v>
+      </c>
+      <c r="C55" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>349</v>
+      </c>
+      <c r="C57" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>350</v>
+      </c>
+      <c r="C58" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>103</v>
+      </c>
+      <c r="C60" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>94</v>
+      </c>
+      <c r="C61" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>351</v>
+      </c>
+      <c r="C62" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>352</v>
+      </c>
+      <c r="C63" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>353</v>
+      </c>
+      <c r="C64" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>20</v>
+      </c>
+      <c r="C66" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>354</v>
+      </c>
+      <c r="C67" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>115</v>
+      </c>
+      <c r="C68" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>355</v>
+      </c>
+      <c r="C70" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>356</v>
+      </c>
+      <c r="C71" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>357</v>
+      </c>
+      <c r="C72" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>358</v>
+      </c>
+      <c r="C73" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>359</v>
+      </c>
+      <c r="C74" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>360</v>
+      </c>
+      <c r="C75" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>361</v>
+      </c>
+      <c r="C76" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>128</v>
+      </c>
+      <c r="C77" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>362</v>
+      </c>
+      <c r="C78" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>363</v>
+      </c>
+      <c r="C79" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>364</v>
+      </c>
+      <c r="C80" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>39</v>
+      </c>
+      <c r="C81" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>365</v>
+      </c>
+      <c r="C82" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>86</v>
+      </c>
+      <c r="C83" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>58</v>
+      </c>
+      <c r="C84" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>366</v>
+      </c>
+      <c r="C85" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>367</v>
+      </c>
+      <c r="C86" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>368</v>
+      </c>
+      <c r="C87" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>369</v>
+      </c>
+      <c r="C88" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>135</v>
+      </c>
+      <c r="C89" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>370</v>
+      </c>
+      <c r="C90" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>371</v>
+      </c>
+      <c r="C91" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>372</v>
+      </c>
+      <c r="C92" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>373</v>
+      </c>
+      <c r="C93" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>49</v>
+      </c>
+      <c r="C94" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>374</v>
+      </c>
+      <c r="C95" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>375</v>
+      </c>
+      <c r="C97" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>376</v>
+      </c>
+      <c r="C98" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>131</v>
+      </c>
+      <c r="C99" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>70</v>
+      </c>
+      <c r="C100" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>377</v>
+      </c>
+      <c r="C101" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>30</v>
+      </c>
+      <c r="C102" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>378</v>
+      </c>
+      <c r="C103" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>379</v>
+      </c>
+      <c r="C104" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>380</v>
+      </c>
+      <c r="C105" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>56</v>
+      </c>
+      <c r="C106" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>73</v>
+      </c>
+      <c r="C107" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>381</v>
+      </c>
+      <c r="C108" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>382</v>
+      </c>
+      <c r="C109" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>89</v>
+      </c>
+      <c r="C110" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>383</v>
+      </c>
+      <c r="C111" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>384</v>
+      </c>
+      <c r="C112" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>385</v>
+      </c>
+      <c r="C113" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>87</v>
+      </c>
+      <c r="C114" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>386</v>
+      </c>
+      <c r="C115" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>387</v>
+      </c>
+      <c r="C116" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>388</v>
+      </c>
+      <c r="C117" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>389</v>
+      </c>
+      <c r="C118" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>120</v>
+      </c>
+      <c r="C119" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>390</v>
+      </c>
+      <c r="C120" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>391</v>
+      </c>
+      <c r="C121" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>392</v>
+      </c>
+      <c r="C122" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>393</v>
+      </c>
+      <c r="C123" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>394</v>
+      </c>
+      <c r="C124" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>395</v>
+      </c>
+      <c r="C125" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>18</v>
+      </c>
+      <c r="C126" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>80</v>
+      </c>
+      <c r="C127" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>60</v>
+      </c>
+      <c r="C128" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>396</v>
+      </c>
+      <c r="C129" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>114</v>
+      </c>
+      <c r="C130" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>397</v>
+      </c>
+      <c r="C131" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>83</v>
+      </c>
+      <c r="C132" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>90</v>
+      </c>
+      <c r="C133" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>398</v>
+      </c>
+      <c r="C134" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>91</v>
+      </c>
+      <c r="C135" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>399</v>
+      </c>
+      <c r="C136" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>400</v>
+      </c>
+      <c r="C137" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>84</v>
+      </c>
+      <c r="C138" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>401</v>
+      </c>
+      <c r="C139" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>402</v>
+      </c>
+      <c r="C140" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>403</v>
+      </c>
+      <c r="C141" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>404</v>
+      </c>
+      <c r="C142" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>405</v>
+      </c>
+      <c r="C143" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="1">
         <v>142</v>
       </c>
-      <c r="C52" t="s">
+      <c r="B144" t="s">
+        <v>406</v>
+      </c>
+      <c r="C144" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>407</v>
+      </c>
+      <c r="C145" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>408</v>
+      </c>
+      <c r="C146" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>409</v>
+      </c>
+      <c r="C147" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
+        <v>410</v>
+      </c>
+      <c r="C148" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>411</v>
+      </c>
+      <c r="C149" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>412</v>
+      </c>
+      <c r="C150" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>413</v>
+      </c>
+      <c r="C151" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>110</v>
+      </c>
+      <c r="C152" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>22</v>
+      </c>
+      <c r="C153" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>414</v>
+      </c>
+      <c r="C154" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
+        <v>71</v>
+      </c>
+      <c r="C155" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>415</v>
+      </c>
+      <c r="C156" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>416</v>
+      </c>
+      <c r="C157" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
+        <v>9</v>
+      </c>
+      <c r="C158" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" t="s">
+        <v>417</v>
+      </c>
+      <c r="C159" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" t="s">
+        <v>418</v>
+      </c>
+      <c r="C160" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>419</v>
+      </c>
+      <c r="C161" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
+        <v>29</v>
+      </c>
+      <c r="C162" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" t="s">
+        <v>420</v>
+      </c>
+      <c r="C163" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164" t="s">
+        <v>421</v>
+      </c>
+      <c r="C164" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165" t="s">
+        <v>422</v>
+      </c>
+      <c r="C165" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166" t="s">
+        <v>108</v>
+      </c>
+      <c r="C166" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167" t="s">
+        <v>423</v>
+      </c>
+      <c r="C167" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168" t="s">
+        <v>59</v>
+      </c>
+      <c r="C168" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169" t="s">
+        <v>424</v>
+      </c>
+      <c r="C169" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170" t="s">
+        <v>98</v>
+      </c>
+      <c r="C170" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171" t="s">
+        <v>425</v>
+      </c>
+      <c r="C171" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172" t="s">
+        <v>426</v>
+      </c>
+      <c r="C172" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173" t="s">
+        <v>427</v>
+      </c>
+      <c r="C173" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="1">
         <v>172</v>
+      </c>
+      <c r="B174" t="s">
+        <v>428</v>
+      </c>
+      <c r="C174" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175" t="s">
+        <v>93</v>
+      </c>
+      <c r="C175" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176" t="s">
+        <v>429</v>
+      </c>
+      <c r="C176" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177" t="s">
+        <v>34</v>
+      </c>
+      <c r="C177" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178" t="s">
+        <v>430</v>
+      </c>
+      <c r="C178" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179" t="s">
+        <v>431</v>
+      </c>
+      <c r="C179" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180" t="s">
+        <v>432</v>
+      </c>
+      <c r="C180" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181" t="s">
+        <v>433</v>
+      </c>
+      <c r="C181" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182" t="s">
+        <v>75</v>
+      </c>
+      <c r="C182" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183" t="s">
+        <v>434</v>
+      </c>
+      <c r="C183" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184" t="s">
+        <v>51</v>
+      </c>
+      <c r="C184" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185" t="s">
+        <v>435</v>
+      </c>
+      <c r="C185" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186" t="s">
+        <v>436</v>
+      </c>
+      <c r="C186" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187" t="s">
+        <v>437</v>
+      </c>
+      <c r="C187" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188" t="s">
+        <v>438</v>
+      </c>
+      <c r="C188" t="s">
+        <v>555</v>
       </c>
     </row>
   </sheetData>
